--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\2023-01_Team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA156492-A8C4-4685-B2E7-B726DC49E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1CD4A-2705-4282-8487-9AD9F5D93ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2190" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Term #</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,14 +682,6 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
         <v>0</v>
       </c>
     </row>

--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\2023-01_Team6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conla\PycharmProjects\2023-01_Team6-Conlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1CD4A-2705-4282-8487-9AD9F5D93ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF24E62-E316-452C-BDB7-A3531E22EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\2023-01_Team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1CD4A-2705-4282-8487-9AD9F5D93ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B057AA-64FA-4DF0-9A28-9E94C0C37AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -412,7 +423,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conla\PycharmProjects\2023-01_Team6-Conlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF24E62-E316-452C-BDB7-A3531E22EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1537660D-6AA0-4A48-B457-1111632D3043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="2925" windowWidth="21600" windowHeight="10140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -411,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -5,29 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\2023-01_Team6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conla\PycharmProjects\2023-01_Team6-Conlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B057AA-64FA-4DF0-9A28-9E94C0C37AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF24E62-E316-452C-BDB7-A3531E22EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -422,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SCE_ClientInfo_Template.xlsx
+++ b/SCE_ClientInfo_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conla\PycharmProjects\2023-01_Team6-Conlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1537660D-6AA0-4A48-B457-1111632D3043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E092AB-8AC3-478A-985B-F583564A4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="2925" windowWidth="21600" windowHeight="10140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
